--- a/ProjectStatusReport-Progress#3.xlsx
+++ b/ProjectStatusReport-Progress#3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\pycrypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E8C5952-875D-458B-BD28-2A4129EE2A6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63A8E6-018A-405D-9D0D-28C728FF8674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="22320" windowHeight="13170" xr2:uid="{22DEDD4C-C281-4EB9-B6E3-7AA8EBD56B41}"/>
   </bookViews>
@@ -82,15 +82,6 @@
     <t>Abdullah</t>
   </si>
   <si>
-    <t>Working GUI App</t>
-  </si>
-  <si>
-    <t>Create a GUI that displays coin information on four different crypto coins</t>
-  </si>
-  <si>
-    <t>Used a link for free CoinMarketAPI to pull data using request module</t>
-  </si>
-  <si>
     <t>Created a table with header and body section</t>
   </si>
   <si>
@@ -110,6 +101,15 @@
   </si>
   <si>
     <t>Connect the db into the GUI app and implement CRUD operation through the app</t>
+  </si>
+  <si>
+    <t>GUI Completed</t>
+  </si>
+  <si>
+    <t>Added Entry boxes and buttons to Add/Update/Delete coin</t>
+  </si>
+  <si>
+    <t>Added color schema and hoover effects to the table for visual aid</t>
   </si>
 </sst>
 </file>
@@ -417,6 +417,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,9 +455,6 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,28 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EA848F-E0E0-4DF9-9EAC-6A7EBE65903A}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
@@ -843,28 +843,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,33 +881,33 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>43588</v>
+        <v>43615</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -920,223 +920,247 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A42:D42"/>
@@ -1153,30 +1177,6 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ON TRACK">
